--- a/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st05.xlsx
+++ b/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st05.xlsx
@@ -1664,7 +1664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2:42 PM \ Cloudy     
+    <t xml:space="preserve">2:42 P.M. \ Cloudy     
 </t>
   </si>
   <si>
@@ -2276,7 +2276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leonhardt"]  And I heard there was this one time you passed out while taking care of paperwork for the Doctor? He was so freaked, he called for the medics right away and took you to Medical. I heard you really got an earful that time.
+    <t xml:space="preserve">[name="Leonhardt"]  And I heard there was this one time you passed out while taking care of paperwork for the Doctor? The Doctor was so freaked and called for the medics right away and took you to Medical. I heard you really got an earful that time.
 </t>
   </si>
   <si>
